--- a/صيدليات دكتور مصطفي طلعت_2026-01-08_19-44.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-08_19-44.xlsx
@@ -275,6 +275,9 @@
     <t>VONACIDAN 20 MG 20 F.C.TABS.</t>
   </si>
   <si>
+    <t>VOTRIAXONE 1 GM I.M VIAL</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -314,10 +317,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>-8:0</t>
-  </si>
-  <si>
-    <t>23:0</t>
+    <t>-3:0</t>
+  </si>
+  <si>
+    <t>26:0</t>
   </si>
   <si>
     <t>سرنجات انسولين</t>
@@ -2454,17 +2457,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2472,7 +2475,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2480,17 +2483,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2512,7 +2515,7 @@
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
@@ -2532,13 +2535,13 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>-96</v>
+        <v>168</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
@@ -2558,13 +2561,13 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>96</v>
+        <v>-96</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
@@ -2584,13 +2587,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>-25</v>
+        <v>96</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
@@ -2602,7 +2605,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2610,13 +2613,13 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>25</v>
+        <v>-25</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
@@ -2628,7 +2631,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2636,13 +2639,13 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>320</v>
+        <v>25</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
@@ -2662,13 +2665,13 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>20</v>
+        <v>320</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
@@ -2688,17 +2691,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
-        <v>102</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2706,7 +2709,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2714,17 +2717,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>15</v>
+        <v>103</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2732,7 +2735,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2740,17 +2743,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2766,13 +2769,13 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
@@ -2784,7 +2787,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B75" s="7">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2792,17 +2795,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2810,7 +2813,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2818,17 +2821,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2844,13 +2847,13 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
@@ -2870,13 +2873,13 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
@@ -2896,51 +2899,77 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="80" ht="26.25" customHeight="1">
-      <c r="K80" s="10">
-        <v>4959.8400000000001</v>
-      </c>
-      <c r="L80" s="10"/>
-      <c r="M80" s="10"/>
-      <c r="N80" s="10"/>
-    </row>
-    <row r="81" ht="16.5" customHeight="1">
-      <c t="s" r="A81" s="11">
+    <row r="80" ht="25.5" customHeight="1">
+      <c r="A80" s="6">
+        <v>77</v>
+      </c>
+      <c t="s" r="B80" s="7">
+        <v>114</v>
+      </c>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c t="s" r="H80" s="8">
         <v>115</v>
       </c>
-      <c r="B81" s="11"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="11"/>
-      <c r="E81" s="11"/>
-      <c t="s" r="F81" s="12">
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="9">
+        <v>65</v>
+      </c>
+      <c r="M80" s="9"/>
+      <c t="s" r="N80" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="K81" s="10">
+        <v>5021.8400000000001</v>
+      </c>
+      <c r="L81" s="10"/>
+      <c r="M81" s="10"/>
+      <c r="N81" s="10"/>
+    </row>
+    <row r="82" ht="16.5" customHeight="1">
+      <c t="s" r="A82" s="11">
         <v>116</v>
       </c>
-      <c r="G81" s="12"/>
-      <c r="H81" s="13"/>
-      <c t="s" r="I81" s="14">
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c t="s" r="F82" s="12">
         <v>117</v>
       </c>
-      <c r="J81" s="14"/>
-      <c r="K81" s="14"/>
-      <c r="L81" s="14"/>
-      <c r="M81" s="14"/>
-      <c r="N81" s="14"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="13"/>
+      <c t="s" r="I82" s="14">
+        <v>118</v>
+      </c>
+      <c r="J82" s="14"/>
+      <c r="K82" s="14"/>
+      <c r="L82" s="14"/>
+      <c r="M82" s="14"/>
+      <c r="N82" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="239">
+  <mergeCells count="242">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3176,10 +3205,13 @@
     <mergeCell ref="B79:G79"/>
     <mergeCell ref="H79:K79"/>
     <mergeCell ref="L79:M79"/>
-    <mergeCell ref="K80:N80"/>
-    <mergeCell ref="A81:E81"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="I81:N81"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="K81:N81"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="I82:N82"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
